--- a/biology/Zoologie/Anisolepis_grilli/Anisolepis_grilli.xlsx
+++ b/biology/Zoologie/Anisolepis_grilli/Anisolepis_grilli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anisolepis grilli est une espèce de sauriens de la famille des Leiosauridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anisolepis grilli est une espèce de sauriens de la famille des Leiosauridae.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 dans le Sud du Brésil ;
 en Argentine dans la province de Misiones ;
 en Uruguay.
-La présence de cette espèce en Uruguay est liée à la découverte de deux spécimens à Montevideo. Toutefois certains auteurs[2] mettent en doute leur origine et donc la présence de cette espèce dans ce pays[3].
+La présence de cette espèce en Uruguay est liée à la découverte de deux spécimens à Montevideo. Toutefois certains auteurs mettent en doute leur origine et donc la présence de cette espèce dans ce pays.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un lézard terrestre qui se rencontre principalement dans les zones forestières pluvieuses de la côte Atlantique[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un lézard terrestre qui se rencontre principalement dans les zones forestières pluvieuses de la côte Atlantique.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Giuseppe Franco Grillo[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Giuseppe Franco Grillo.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1891 : Description of a new Iguanoid lizard of the genus Anisolepis. Annali del Museo Civico di Storia Naturale di Genova, ser. 2, vol. 10, p. 909 (texte intégral).</t>
         </is>
